--- a/dados/tabela/tabela-naotratado.xlsx
+++ b/dados/tabela/tabela-naotratado.xlsx
@@ -545,10 +545,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -557,35 +557,35 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K2" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L2" t="n">
-        <v>34.7</v>
+        <v>35.2</v>
       </c>
       <c r="M2" t="n">
-        <v>30.6</v>
+        <v>33.5</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="O2" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>L L L D W</t>
+          <t>L L D W W</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -625,35 +625,35 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K3" t="n">
-        <v>1.77</v>
+        <v>1.81</v>
       </c>
       <c r="L3" t="n">
-        <v>37.7</v>
+        <v>40.1</v>
       </c>
       <c r="M3" t="n">
-        <v>29.4</v>
+        <v>31.2</v>
       </c>
       <c r="N3" t="n">
-        <v>8.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>D W W W D</t>
+          <t>W W W D W</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -661,7 +661,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Eduardo Sasha - 7</t>
+          <t>Eduardo Sasha - 9</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -677,64 +677,64 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
         <v>13</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H4" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="L4" t="n">
-        <v>34.3</v>
+        <v>37.1</v>
       </c>
       <c r="M4" t="n">
-        <v>37.4</v>
+        <v>34.8</v>
       </c>
       <c r="N4" t="n">
-        <v>-3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.12</v>
+        <v>0.08</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>L D W D L</t>
+          <t>L D W D W</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>21461</v>
+        <v>33241</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Luis Suárez - 9</t>
+          <t>Pedro - 7</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Gabriel Chapecó</t>
+          <t>Matheus Cunha</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
@@ -745,64 +745,64 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
+        <v>9</v>
+      </c>
+      <c r="G5" t="n">
+        <v>43</v>
+      </c>
+      <c r="H5" t="n">
+        <v>37</v>
+      </c>
+      <c r="I5" t="n">
         <v>6</v>
-      </c>
-      <c r="G5" t="n">
-        <v>40</v>
-      </c>
-      <c r="H5" t="n">
-        <v>22</v>
-      </c>
-      <c r="I5" t="n">
-        <v>18</v>
       </c>
       <c r="J5" t="n">
         <v>44</v>
       </c>
       <c r="K5" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="L5" t="n">
-        <v>37.9</v>
+        <v>35.9</v>
       </c>
       <c r="M5" t="n">
-        <v>27.4</v>
+        <v>38.3</v>
       </c>
       <c r="N5" t="n">
-        <v>10.5</v>
+        <v>-2.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0.41</v>
+        <v>-0.09</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>D W L L L</t>
+          <t>D W D L L</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>25467</v>
+        <v>21691</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Raphael Veiga - 7</t>
+          <t>Luis Suárez - 9</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Wéverton</t>
+          <t>Gabriel Chapecó</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -813,11 +813,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="n">
         <v>12</v>
@@ -826,51 +826,51 @@
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H6" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I6" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="J6" t="n">
         <v>44</v>
       </c>
       <c r="K6" t="n">
-        <v>1.69</v>
+        <v>1.63</v>
       </c>
       <c r="L6" t="n">
-        <v>35.2</v>
+        <v>38.7</v>
       </c>
       <c r="M6" t="n">
-        <v>34.5</v>
+        <v>28.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.7</v>
+        <v>10.3</v>
       </c>
       <c r="O6" t="n">
-        <v>0.03</v>
+        <v>0.38</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>W L D W D</t>
+          <t>W L L L L</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>33241</v>
+        <v>25640</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Pedro - 6</t>
+          <t>Raphael Veiga - 7</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Matheus Cunha</t>
+          <t>Wéverton</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
@@ -881,64 +881,64 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H7" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K7" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="L7" t="n">
-        <v>39.8</v>
+        <v>38</v>
       </c>
       <c r="M7" t="n">
-        <v>29.4</v>
+        <v>31</v>
       </c>
       <c r="N7" t="n">
-        <v>10.5</v>
+        <v>6.9</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4</v>
+        <v>0.26</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>L W W D W</t>
+          <t>W W L D W</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>23059</v>
+        <v>16640</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Juan Martín Lucero - 7</t>
+          <t>Vitor Roque - 11</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>João Ricardo Riedi</t>
+          <t>Bento</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
@@ -949,64 +949,64 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Atlético Mineiro</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
         <v>12</v>
       </c>
       <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>32</v>
+      </c>
+      <c r="H8" t="n">
+        <v>21</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11</v>
+      </c>
+      <c r="J8" t="n">
+        <v>43</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="L8" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="M8" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="N8" t="n">
         <v>5</v>
       </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-      <c r="G8" t="n">
-        <v>34</v>
-      </c>
-      <c r="H8" t="n">
-        <v>31</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
-      <c r="J8" t="n">
-        <v>41</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="L8" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.1</v>
-      </c>
       <c r="O8" t="n">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>W L W L L</t>
+          <t>W W W L W</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>24737</v>
+        <v>15587</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Germán Cano - 7</t>
+          <t>Paulinho - 11</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Fábio</t>
+          <t>Éverson</t>
         </is>
       </c>
       <c r="T8" t="inlineStr"/>
@@ -1017,64 +1017,64 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ath Paranaense</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G9" t="n">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K9" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="L9" t="n">
-        <v>37.1</v>
+        <v>40.5</v>
       </c>
       <c r="M9" t="n">
-        <v>29.5</v>
+        <v>31.3</v>
       </c>
       <c r="N9" t="n">
-        <v>7.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O9" t="n">
-        <v>0.29</v>
+        <v>0.34</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>D W W L D</t>
+          <t>W W D W L</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>16640</v>
+        <v>23059</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Vitor Roque - 11</t>
+          <t>Juan Martín Lucero - 7</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Bento</t>
+          <t>João Ricardo Riedi</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
@@ -1085,64 +1085,64 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Atlético Mineiro</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="I10" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="L10" t="n">
-        <v>31.4</v>
+        <v>36.9</v>
       </c>
       <c r="M10" t="n">
-        <v>26.6</v>
+        <v>35.2</v>
       </c>
       <c r="N10" t="n">
-        <v>4.8</v>
+        <v>1.8</v>
       </c>
       <c r="O10" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>D W W W L</t>
+          <t>L W L L D</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>15587</v>
+        <v>25428</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Paulinho - 10</t>
+          <t>Germán Cano - 7</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Éverson</t>
+          <t>Fábio</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
@@ -1153,64 +1153,64 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Cuiabá</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="J11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="L11" t="n">
-        <v>36.3</v>
+        <v>26.9</v>
       </c>
       <c r="M11" t="n">
-        <v>27.1</v>
+        <v>29.4</v>
       </c>
       <c r="N11" t="n">
-        <v>9.1</v>
+        <v>-2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>0.35</v>
+        <v>-0.09</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>L L W W D</t>
+          <t>D L W D W</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>28362</v>
+        <v>11228</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Jonathan Calleri - 9</t>
+          <t>Deyverson - 10</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Rafael Pires</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
@@ -1221,64 +1221,64 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
         <v>9</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="J12" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="L12" t="n">
-        <v>26.5</v>
+        <v>36.7</v>
       </c>
       <c r="M12" t="n">
-        <v>28.2</v>
+        <v>27.6</v>
       </c>
       <c r="N12" t="n">
-        <v>-1.7</v>
+        <v>9.1</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.06</v>
+        <v>0.34</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>L D L W D</t>
+          <t>L W W D L</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>11228</v>
+        <v>28362</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Deyverson - 9</t>
+          <t>Jonathan Calleri - 9</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Walter</t>
+          <t>Rafael Pires</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
         <v>8</v>
@@ -1302,38 +1302,38 @@
         <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G13" t="n">
         <v>23</v>
       </c>
       <c r="H13" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I13" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="J13" t="n">
         <v>32</v>
       </c>
       <c r="K13" t="n">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="L13" t="n">
-        <v>27.2</v>
+        <v>27.8</v>
       </c>
       <c r="M13" t="n">
-        <v>32.8</v>
+        <v>34.7</v>
       </c>
       <c r="N13" t="n">
-        <v>-5.6</v>
+        <v>-6.9</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.21</v>
+        <v>-0.26</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>D W L L W</t>
+          <t>W L L W L</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>John, Keiller</t>
+          <t>Keiller</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
@@ -1357,47 +1357,47 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
         <v>7</v>
       </c>
       <c r="E14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H14" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="J14" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K14" t="n">
         <v>1.19</v>
       </c>
       <c r="L14" t="n">
-        <v>32.4</v>
+        <v>28.2</v>
       </c>
       <c r="M14" t="n">
-        <v>31.2</v>
+        <v>36.3</v>
       </c>
       <c r="N14" t="n">
-        <v>1.1</v>
+        <v>-8.1</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04</v>
+        <v>-0.3</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1405,16 +1405,16 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>18111</v>
+        <v>27058</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Bruno Nascimento, Wesley - 4</t>
+          <t>Roger Guedes, Yuri Alberto - 7</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Rafael Cabral</t>
+          <t>Cássio</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1425,64 +1425,64 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="n">
         <v>7</v>
       </c>
-      <c r="E15" t="n">
-        <v>10</v>
-      </c>
       <c r="F15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H15" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I15" t="n">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="J15" t="n">
         <v>31</v>
       </c>
       <c r="K15" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="L15" t="n">
-        <v>26.2</v>
+        <v>35.5</v>
       </c>
       <c r="M15" t="n">
-        <v>34.6</v>
+        <v>39</v>
       </c>
       <c r="N15" t="n">
-        <v>-8.4</v>
+        <v>-3.5</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.32</v>
+        <v>-0.13</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>L D W L D</t>
+          <t>W L L W W</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>27058</v>
+        <v>27332</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Roger Guedes - 7</t>
+          <t>Everaldo Stum - 6</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Cássio</t>
+          <t>Marcos Felipe</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
@@ -1493,64 +1493,64 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G16" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H16" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="I16" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K16" t="n">
         <v>1.15</v>
       </c>
       <c r="L16" t="n">
-        <v>29.7</v>
+        <v>32.7</v>
       </c>
       <c r="M16" t="n">
-        <v>36.4</v>
+        <v>33.1</v>
       </c>
       <c r="N16" t="n">
-        <v>-6.8</v>
+        <v>-0.4</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.26</v>
+        <v>-0.02</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>L L W W W</t>
+          <t>W L D D L</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>5948</v>
+        <v>19465</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Marcos Leonardo - 12</t>
+          <t>Bruno Nascimento, Wesley - 4</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>João Paulo</t>
+          <t>Rafael Cabral</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -1561,64 +1561,64 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="H17" t="n">
         <v>38</v>
       </c>
       <c r="I17" t="n">
-        <v>-4</v>
+        <v>-10</v>
       </c>
       <c r="J17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K17" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="L17" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="M17" t="n">
         <v>33.6</v>
       </c>
-      <c r="M17" t="n">
-        <v>38.5</v>
-      </c>
       <c r="N17" t="n">
-        <v>-4.8</v>
+        <v>2.3</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.19</v>
+        <v>0.09</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>D W L L W</t>
+          <t>W W L D W</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>26994</v>
+        <v>16817</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Everaldo Stum - 6</t>
+          <t>Pablo Vegetti - 7</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Marcos Felipe</t>
+          <t>Léo Jardim</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1629,14 +1629,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
         <v>6</v>
@@ -1645,48 +1645,48 @@
         <v>13</v>
       </c>
       <c r="G18" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="I18" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="J18" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="L18" t="n">
-        <v>33.9</v>
+        <v>31.5</v>
       </c>
       <c r="M18" t="n">
-        <v>32.8</v>
+        <v>38.8</v>
       </c>
       <c r="N18" t="n">
-        <v>1.1</v>
+        <v>-7.4</v>
       </c>
       <c r="O18" t="n">
-        <v>0.04</v>
+        <v>-0.27</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>W W W L D</t>
+          <t>L W W W L</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>16552</v>
+        <v>6441</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Pablo Vegetti - 7</t>
+          <t>Marcos Leonardo - 12</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Léo Jardim</t>
+          <t>João Paulo</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -1701,10 +1701,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E19" t="n">
         <v>9</v>
@@ -1713,39 +1713,39 @@
         <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H19" t="n">
         <v>37</v>
       </c>
       <c r="I19" t="n">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="J19" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="L19" t="n">
-        <v>25.9</v>
+        <v>26.4</v>
       </c>
       <c r="M19" t="n">
-        <v>31.1</v>
+        <v>31.6</v>
       </c>
       <c r="N19" t="n">
         <v>-5.2</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.2</v>
+        <v>-0.19</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>D L D D L</t>
+          <t>L D D L W</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>5688</v>
+        <v>6187</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="n">
         <v>5</v>
@@ -1778,42 +1778,42 @@
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
         <v>29</v>
       </c>
       <c r="H20" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I20" t="n">
-        <v>-25</v>
+        <v>-28</v>
       </c>
       <c r="J20" t="n">
         <v>20</v>
       </c>
       <c r="K20" t="n">
-        <v>0.77</v>
+        <v>0.74</v>
       </c>
       <c r="L20" t="n">
-        <v>26.9</v>
+        <v>28.1</v>
       </c>
       <c r="M20" t="n">
-        <v>43.9</v>
+        <v>44.3</v>
       </c>
       <c r="N20" t="n">
-        <v>-17</v>
+        <v>-16.2</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.65</v>
+        <v>-0.6</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>L L L W W</t>
+          <t>L L W W L</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>11878</v>
+        <v>12569</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="n">
         <v>4</v>
@@ -1846,42 +1846,42 @@
         <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H21" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I21" t="n">
-        <v>-25</v>
+        <v>-26</v>
       </c>
       <c r="J21" t="n">
         <v>18</v>
       </c>
       <c r="K21" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="L21" t="n">
-        <v>32.7</v>
+        <v>35.6</v>
       </c>
       <c r="M21" t="n">
-        <v>40.1</v>
+        <v>40.6</v>
       </c>
       <c r="N21" t="n">
-        <v>-7.4</v>
+        <v>-5</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.29</v>
+        <v>-0.19</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>D L L D L</t>
+          <t>L L D L L</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>2578</v>
+        <v>2839</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>

--- a/dados/tabela/tabela-naotratado.xlsx
+++ b/dados/tabela/tabela-naotratado.xlsx
@@ -545,55 +545,55 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
         <v>18</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" t="n">
         <v>27</v>
       </c>
       <c r="J2" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K2" t="n">
-        <v>2.15</v>
+        <v>2.11</v>
       </c>
       <c r="L2" t="n">
-        <v>35.2</v>
+        <v>36.1</v>
       </c>
       <c r="M2" t="n">
-        <v>33.5</v>
+        <v>34.7</v>
       </c>
       <c r="N2" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="O2" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>L L D W W</t>
+          <t>L D W W D</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>23888</v>
+        <v>22182</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Tiquinho Soares - 15</t>
+          <t>Tiquinho Soares - 16</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
@@ -613,10 +613,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="n">
         <v>10</v>
@@ -625,43 +625,43 @@
         <v>4</v>
       </c>
       <c r="G3" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
         <v>24</v>
       </c>
       <c r="I3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J3" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K3" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="L3" t="n">
-        <v>40.1</v>
+        <v>42.3</v>
       </c>
       <c r="M3" t="n">
-        <v>31.2</v>
+        <v>31.7</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>10.6</v>
       </c>
       <c r="O3" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>W W W D W</t>
+          <t>W W D W W</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3776</v>
+        <v>3506</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Eduardo Sasha - 9</t>
+          <t>Eduardo Sasha - 10</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -681,10 +681,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="n">
         <v>8</v>
@@ -693,39 +693,39 @@
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" t="n">
         <v>31</v>
       </c>
       <c r="I4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>1.74</v>
+        <v>1.79</v>
       </c>
       <c r="L4" t="n">
-        <v>37.1</v>
+        <v>37.6</v>
       </c>
       <c r="M4" t="n">
-        <v>34.8</v>
+        <v>35.8</v>
       </c>
       <c r="N4" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>L D W D W</t>
+          <t>D W D W W</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>33241</v>
+        <v>36028</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -745,64 +745,64 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grêmio</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
         <v>13</v>
       </c>
       <c r="E5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H5" t="n">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J5" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K5" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="L5" t="n">
-        <v>35.9</v>
+        <v>39.8</v>
       </c>
       <c r="M5" t="n">
-        <v>38.3</v>
+        <v>29.2</v>
       </c>
       <c r="N5" t="n">
-        <v>-2.4</v>
+        <v>10.6</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.09</v>
+        <v>0.38</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>D W D L L</t>
+          <t>L L L L W</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>21691</v>
+        <v>25640</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Luis Suárez - 9</t>
+          <t>Raphael Veiga - 7</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Gabriel Chapecó</t>
+          <t>Wéverton</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -813,64 +813,64 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Ath Paranaense</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="n">
         <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="n">
         <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H6" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I6" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J6" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K6" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="L6" t="n">
-        <v>38.7</v>
+        <v>39.1</v>
       </c>
       <c r="M6" t="n">
-        <v>28.3</v>
+        <v>32</v>
       </c>
       <c r="N6" t="n">
-        <v>10.3</v>
+        <v>7.2</v>
       </c>
       <c r="O6" t="n">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>W L L L L</t>
+          <t>W L D W D</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>25640</v>
+        <v>16640</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Raphael Veiga - 7</t>
+          <t>Vitor Roque - 11</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Wéverton</t>
+          <t>Bento</t>
         </is>
       </c>
       <c r="T6" t="inlineStr"/>
@@ -881,64 +881,64 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ath Paranaense</t>
+          <t>Grêmio</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G7" t="n">
+        <v>43</v>
+      </c>
+      <c r="H7" t="n">
         <v>40</v>
       </c>
-      <c r="H7" t="n">
-        <v>31</v>
-      </c>
       <c r="I7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
         <v>44</v>
       </c>
       <c r="K7" t="n">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="L7" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M7" t="n">
-        <v>31</v>
+        <v>41.3</v>
       </c>
       <c r="N7" t="n">
-        <v>6.9</v>
+        <v>-5.2</v>
       </c>
       <c r="O7" t="n">
-        <v>0.26</v>
+        <v>-0.19</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>W W L D W</t>
+          <t>W D L L L</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>16640</v>
+        <v>21691</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Vitor Roque - 11</t>
+          <t>Luis Suárez - 9</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Bento</t>
+          <t>Gabriel Chapecó</t>
         </is>
       </c>
       <c r="T7" t="inlineStr"/>
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="n">
         <v>12</v>
@@ -962,42 +962,42 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G8" t="n">
         <v>32</v>
       </c>
       <c r="H8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
         <v>43</v>
       </c>
       <c r="K8" t="n">
-        <v>1.59</v>
+        <v>1.54</v>
       </c>
       <c r="L8" t="n">
-        <v>32.4</v>
+        <v>33.2</v>
       </c>
       <c r="M8" t="n">
-        <v>27.4</v>
+        <v>28.2</v>
       </c>
       <c r="N8" t="n">
         <v>5</v>
       </c>
       <c r="O8" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>W W W L W</t>
+          <t>W W L W L</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>15587</v>
+        <v>14473</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
         <v>12</v>
@@ -1030,38 +1030,38 @@
         <v>6</v>
       </c>
       <c r="F9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
         <v>33</v>
       </c>
       <c r="H9" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>42</v>
       </c>
       <c r="K9" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="L9" t="n">
-        <v>40.5</v>
+        <v>41</v>
       </c>
       <c r="M9" t="n">
-        <v>31.3</v>
+        <v>32.6</v>
       </c>
       <c r="N9" t="n">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>0.34</v>
+        <v>0.3</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>W W D W L</t>
+          <t>W D W L L</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1089,7 +1089,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" t="n">
         <v>12</v>
@@ -1098,38 +1098,38 @@
         <v>6</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
         <v>37</v>
       </c>
       <c r="H10" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" t="n">
         <v>42</v>
       </c>
       <c r="K10" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="L10" t="n">
-        <v>36.9</v>
+        <v>37.5</v>
       </c>
       <c r="M10" t="n">
-        <v>35.2</v>
+        <v>37.4</v>
       </c>
       <c r="N10" t="n">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>L W L L D</t>
+          <t>W L L D L</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1153,64 +1153,64 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Cuiabá</t>
+          <t>São Paulo</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
+        <v>34</v>
+      </c>
+      <c r="H11" t="n">
         <v>29</v>
       </c>
-      <c r="H11" t="n">
-        <v>30</v>
-      </c>
       <c r="I11" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="J11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="L11" t="n">
-        <v>26.9</v>
+        <v>39.7</v>
       </c>
       <c r="M11" t="n">
-        <v>29.4</v>
+        <v>27.7</v>
       </c>
       <c r="N11" t="n">
-        <v>-2.5</v>
+        <v>12</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.09</v>
+        <v>0.43</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>D L W D W</t>
+          <t>W W D L W</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>11228</v>
+        <v>29613</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Deyverson - 10</t>
+          <t>Jonathan Calleri - 9</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Walter</t>
+          <t>Rafael Pires</t>
         </is>
       </c>
       <c r="T11" t="inlineStr"/>
@@ -1221,64 +1221,64 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Cuiabá</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
         <v>31</v>
       </c>
-      <c r="H12" t="n">
-        <v>29</v>
-      </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="J12" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K12" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="L12" t="n">
-        <v>36.7</v>
+        <v>28.3</v>
       </c>
       <c r="M12" t="n">
-        <v>27.6</v>
+        <v>31.3</v>
       </c>
       <c r="N12" t="n">
-        <v>9.1</v>
+        <v>-3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>0.34</v>
+        <v>-0.11</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>L W W D L</t>
+          <t>L W D W D</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>28362</v>
+        <v>10426</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Jonathan Calleri - 9</t>
+          <t>Deyverson - 10</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Rafael Pires</t>
+          <t>Walter</t>
         </is>
       </c>
       <c r="T12" t="inlineStr"/>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="n">
         <v>8</v>
@@ -1305,43 +1305,43 @@
         <v>11</v>
       </c>
       <c r="G13" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I13" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="J13" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K13" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="L13" t="n">
-        <v>27.8</v>
+        <v>29.4</v>
       </c>
       <c r="M13" t="n">
-        <v>34.7</v>
+        <v>36.4</v>
       </c>
       <c r="N13" t="n">
-        <v>-6.9</v>
+        <v>-7</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.26</v>
+        <v>-0.25</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>W L L W L</t>
+          <t>L L W L W</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>14716</v>
+        <v>13665</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Wanderson - 4</t>
+          <t>Wanderson - 5</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
@@ -1357,64 +1357,64 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
         <v>7</v>
       </c>
-      <c r="E14" t="n">
-        <v>11</v>
-      </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I14" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="J14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K14" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="L14" t="n">
-        <v>28.2</v>
+        <v>36.9</v>
       </c>
       <c r="M14" t="n">
-        <v>36.3</v>
+        <v>39.5</v>
       </c>
       <c r="N14" t="n">
-        <v>-8.1</v>
+        <v>-2.7</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>D W L D D</t>
+          <t>L L W W W</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>27058</v>
+        <v>28577</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Roger Guedes, Yuri Alberto - 7</t>
+          <t>Everaldo Stum - 6</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Cássio</t>
+          <t>Marcos Felipe</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1425,64 +1425,64 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="n">
         <v>8</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="H15" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I15" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K15" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="L15" t="n">
-        <v>35.5</v>
+        <v>33.6</v>
       </c>
       <c r="M15" t="n">
-        <v>39</v>
+        <v>33.7</v>
       </c>
       <c r="N15" t="n">
-        <v>-3.5</v>
+        <v>-0.1</v>
       </c>
       <c r="O15" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>W L L W W</t>
+          <t>L D D L W</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>27332</v>
+        <v>19465</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Everaldo Stum - 6</t>
+          <t>Bruno Nascimento, Wesley - 4</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Marcos Felipe</t>
+          <t>Rafael Cabral</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
@@ -1493,64 +1493,64 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
         <v>7</v>
       </c>
       <c r="E16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G16" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="H16" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="J16" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K16" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="L16" t="n">
-        <v>32.7</v>
+        <v>29.4</v>
       </c>
       <c r="M16" t="n">
-        <v>33.1</v>
+        <v>37</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.4</v>
+        <v>-7.5</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.02</v>
+        <v>-0.27</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>W L D D L</t>
+          <t>W L D D D</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>19465</v>
+        <v>27848</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Bruno Nascimento, Wesley - 4</t>
+          <t>Roger Guedes, Yuri Alberto - 7</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Rafael Cabral</t>
+          <t>Cássio</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -1561,20 +1561,20 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Vasco da Gama</t>
+          <t>Goiás</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G17" t="n">
         <v>28</v>
@@ -1586,39 +1586,39 @@
         <v>-10</v>
       </c>
       <c r="J17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K17" t="n">
         <v>1.11</v>
       </c>
       <c r="L17" t="n">
-        <v>35.9</v>
+        <v>28.1</v>
       </c>
       <c r="M17" t="n">
-        <v>33.6</v>
+        <v>32.9</v>
       </c>
       <c r="N17" t="n">
-        <v>2.3</v>
+        <v>-4.9</v>
       </c>
       <c r="O17" t="n">
-        <v>0.09</v>
+        <v>-0.17</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>W W L D W</t>
+          <t>D D L W D</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>16817</v>
+        <v>6187</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Pablo Vegetti - 7</t>
+          <t>Guilherme - 6</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Léo Jardim</t>
+          <t>Tadeu</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1629,11 +1629,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Santos</t>
+          <t>Vasco da Gama</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>8</v>
@@ -1642,51 +1642,51 @@
         <v>6</v>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H18" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I18" t="n">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="J18" t="n">
         <v>30</v>
       </c>
       <c r="K18" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="L18" t="n">
-        <v>31.5</v>
+        <v>36.9</v>
       </c>
       <c r="M18" t="n">
-        <v>38.8</v>
+        <v>34.1</v>
       </c>
       <c r="N18" t="n">
-        <v>-7.4</v>
+        <v>2.8</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.27</v>
+        <v>0.1</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>L W W W L</t>
+          <t>W L D W L</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>6441</v>
+        <v>16817</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Marcos Leonardo - 12</t>
+          <t>Pablo Vegetti - 7</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>João Paulo</t>
+          <t>Léo Jardim</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -1697,64 +1697,64 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Goiás</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G19" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H19" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I19" t="n">
-        <v>-10</v>
+        <v>-21</v>
       </c>
       <c r="J19" t="n">
         <v>30</v>
       </c>
       <c r="K19" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="L19" t="n">
-        <v>26.4</v>
+        <v>33.1</v>
       </c>
       <c r="M19" t="n">
-        <v>31.6</v>
+        <v>40.5</v>
       </c>
       <c r="N19" t="n">
-        <v>-5.2</v>
+        <v>-7.4</v>
       </c>
       <c r="O19" t="n">
-        <v>-0.19</v>
+        <v>-0.26</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>L D D L W</t>
+          <t>W W W L L</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>6187</v>
+        <v>6441</v>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Guilherme - 5</t>
+          <t>Marcos Leonardo - 12</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Tadeu</t>
+          <t>João Paulo</t>
         </is>
       </c>
       <c r="T19" t="inlineStr"/>
@@ -1769,7 +1769,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>5</v>
@@ -1778,42 +1778,42 @@
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
         <v>29</v>
       </c>
       <c r="H20" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I20" t="n">
-        <v>-28</v>
+        <v>-30</v>
       </c>
       <c r="J20" t="n">
         <v>20</v>
       </c>
       <c r="K20" t="n">
-        <v>0.74</v>
+        <v>0.71</v>
       </c>
       <c r="L20" t="n">
-        <v>28.1</v>
+        <v>29</v>
       </c>
       <c r="M20" t="n">
-        <v>44.3</v>
+        <v>45.4</v>
       </c>
       <c r="N20" t="n">
-        <v>-16.2</v>
+        <v>-16.5</v>
       </c>
       <c r="O20" t="n">
-        <v>-0.6</v>
+        <v>-0.59</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>L L W W L</t>
+          <t>L W W L L</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>12569</v>
+        <v>11672</v>
       </c>
       <c r="R20" t="inlineStr">
         <is>
@@ -1837,47 +1837,47 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" t="n">
         <v>17</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I21" t="n">
         <v>-26</v>
       </c>
       <c r="J21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K21" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="L21" t="n">
-        <v>35.6</v>
+        <v>36.3</v>
       </c>
       <c r="M21" t="n">
-        <v>40.6</v>
+        <v>41.9</v>
       </c>
       <c r="N21" t="n">
-        <v>-5</v>
+        <v>-5.6</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.19</v>
+        <v>-0.2</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>L L D L L</t>
+          <t>L D L L D</t>
         </is>
       </c>
       <c r="Q21" t="n">

--- a/dados/tabela/tabela-naotratado.xlsx
+++ b/dados/tabela/tabela-naotratado.xlsx
@@ -575,10 +575,10 @@
         <v>36.1</v>
       </c>
       <c r="M2" t="n">
-        <v>34.7</v>
+        <v>34.6</v>
       </c>
       <c r="N2" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O2" t="n">
         <v>0.05</v>
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
         <v>14</v>
@@ -622,42 +622,42 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H3" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="n">
         <v>52</v>
       </c>
       <c r="K3" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="L3" t="n">
-        <v>42.3</v>
+        <v>44.4</v>
       </c>
       <c r="M3" t="n">
-        <v>31.7</v>
+        <v>33.3</v>
       </c>
       <c r="N3" t="n">
-        <v>10.6</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>0.38</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>W W D W W</t>
+          <t>W D W W L</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3506</v>
+        <v>3639</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -677,11 +677,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>14</v>
@@ -690,51 +690,51 @@
         <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="H4" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="I4" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="J4" t="n">
         <v>50</v>
       </c>
       <c r="K4" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="L4" t="n">
-        <v>37.6</v>
+        <v>42.2</v>
       </c>
       <c r="M4" t="n">
-        <v>35.8</v>
+        <v>29.2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>12.9</v>
       </c>
       <c r="O4" t="n">
-        <v>0.06</v>
+        <v>0.45</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>D W D W W</t>
+          <t>L L L W W</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>36028</v>
+        <v>23809</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Pedro - 7</t>
+          <t>Raphael Veiga - 7</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Matheus Cunha</t>
+          <t>Wéverton</t>
         </is>
       </c>
       <c r="T4" t="inlineStr"/>
@@ -745,14 +745,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="n">
         <v>8</v>
@@ -761,48 +761,48 @@
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H5" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I5" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K5" t="n">
-        <v>1.68</v>
+        <v>1.72</v>
       </c>
       <c r="L5" t="n">
-        <v>39.8</v>
+        <v>38.6</v>
       </c>
       <c r="M5" t="n">
-        <v>29.2</v>
+        <v>36.9</v>
       </c>
       <c r="N5" t="n">
-        <v>10.6</v>
+        <v>1.7</v>
       </c>
       <c r="O5" t="n">
-        <v>0.38</v>
+        <v>0.06</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>L L L L W</t>
+          <t>W D W W L</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>25640</v>
+        <v>36028</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Raphael Veiga - 7</t>
+          <t>Pedro - 7</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Wéverton</t>
+          <t>Matheus Cunha</t>
         </is>
       </c>
       <c r="T5" t="inlineStr"/>
@@ -817,10 +817,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
@@ -829,39 +829,39 @@
         <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I6" t="n">
+        <v>10</v>
+      </c>
+      <c r="J6" t="n">
+        <v>48</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="L6" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="M6" t="n">
+        <v>32.9</v>
+      </c>
+      <c r="N6" t="n">
         <v>9</v>
       </c>
-      <c r="J6" t="n">
-        <v>45</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="L6" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>32</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.2</v>
-      </c>
       <c r="O6" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>W L D W D</t>
+          <t>L D W D W</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>16640</v>
+        <v>16909</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -885,10 +885,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
@@ -897,39 +897,39 @@
         <v>10</v>
       </c>
       <c r="G7" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="H7" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J7" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="L7" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M7" t="n">
-        <v>41.3</v>
+        <v>42.6</v>
       </c>
       <c r="N7" t="n">
-        <v>-5.2</v>
+        <v>-5.6</v>
       </c>
       <c r="O7" t="n">
         <v>-0.19</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>W D L L L</t>
+          <t>D L L L W</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>21691</v>
+        <v>20245</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -953,10 +953,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E8" t="n">
         <v>7</v>
@@ -965,35 +965,35 @@
         <v>9</v>
       </c>
       <c r="G8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K8" t="n">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="L8" t="n">
-        <v>33.2</v>
+        <v>34.8</v>
       </c>
       <c r="M8" t="n">
-        <v>28.2</v>
+        <v>30.3</v>
       </c>
       <c r="N8" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>W W L W L</t>
+          <t>W L W L W</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Paulinho - 11</t>
+          <t>Hulk, Paulinho - 11</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
@@ -1017,14 +1017,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="n">
         <v>6</v>
@@ -1033,48 +1033,48 @@
         <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="H9" t="n">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I9" t="n">
         <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K9" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="L9" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M9" t="n">
-        <v>32.6</v>
+        <v>37.9</v>
       </c>
       <c r="N9" t="n">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>W D W L L</t>
+          <t>L L D L W</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>23059</v>
+        <v>23839</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Juan Martín Lucero - 7</t>
+          <t>Germán Cano - 7</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>João Ricardo Riedi</t>
+          <t>Fábio</t>
         </is>
       </c>
       <c r="T9" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Fortaleza</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -1101,13 +1101,13 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H10" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
         <v>42</v>
@@ -1116,33 +1116,33 @@
         <v>1.5</v>
       </c>
       <c r="L10" t="n">
-        <v>37.5</v>
+        <v>41</v>
       </c>
       <c r="M10" t="n">
-        <v>37.4</v>
+        <v>32.6</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1</v>
+        <v>8.5</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>W L L D L</t>
+          <t>W D W L L</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>25428</v>
+        <v>23059</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Germán Cano - 7</t>
+          <t>Juan Martín Lucero - 7</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Fábio</t>
+          <t>João Ricardo Riedi</t>
         </is>
       </c>
       <c r="T10" t="inlineStr"/>
@@ -1157,7 +1157,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" t="n">
         <v>10</v>
@@ -1166,38 +1166,38 @@
         <v>8</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G11" t="n">
         <v>34</v>
       </c>
       <c r="H11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I11" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>38</v>
       </c>
       <c r="K11" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="L11" t="n">
-        <v>39.7</v>
+        <v>40.1</v>
       </c>
       <c r="M11" t="n">
-        <v>27.7</v>
+        <v>30.1</v>
       </c>
       <c r="N11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O11" t="n">
-        <v>0.43</v>
+        <v>0.35</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>W W D L W</t>
+          <t>W D L W L</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1225,7 +1225,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D12" t="n">
         <v>10</v>
@@ -1234,42 +1234,42 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" t="n">
         <v>30</v>
       </c>
       <c r="H12" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I12" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="J12" t="n">
         <v>37</v>
       </c>
       <c r="K12" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="L12" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="M12" t="n">
-        <v>31.3</v>
+        <v>32.9</v>
       </c>
       <c r="N12" t="n">
-        <v>-3.1</v>
+        <v>-4.1</v>
       </c>
       <c r="O12" t="n">
-        <v>-0.11</v>
+        <v>-0.14</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>L W D W D</t>
+          <t>W D W D L</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>10426</v>
+        <v>9731</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1289,64 +1289,64 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D13" t="n">
         <v>9</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H13" t="n">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I13" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K13" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="L13" t="n">
-        <v>29.4</v>
+        <v>35.6</v>
       </c>
       <c r="M13" t="n">
-        <v>36.4</v>
+        <v>34.1</v>
       </c>
       <c r="N13" t="n">
-        <v>-7</v>
+        <v>1.6</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.25</v>
+        <v>0.05</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>L L W L W</t>
+          <t>D D L W W</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>13665</v>
+        <v>18167</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Wanderson - 5</t>
+          <t>Bruno Nascimento - 5</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Keiller</t>
+          <t>Rafael Cabral</t>
         </is>
       </c>
       <c r="T13" t="inlineStr"/>
@@ -1357,64 +1357,64 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>12</v>
+      </c>
+      <c r="F14" t="n">
         <v>9</v>
       </c>
-      <c r="E14" t="n">
-        <v>7</v>
-      </c>
-      <c r="F14" t="n">
-        <v>12</v>
-      </c>
       <c r="G14" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H14" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I14" t="n">
         <v>-1</v>
       </c>
       <c r="J14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="L14" t="n">
-        <v>36.9</v>
+        <v>31</v>
       </c>
       <c r="M14" t="n">
-        <v>39.5</v>
+        <v>37.6</v>
       </c>
       <c r="N14" t="n">
-        <v>-2.7</v>
+        <v>-6.5</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.1</v>
+        <v>-0.23</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>L L W W W</t>
+          <t>L D D D W</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>28577</v>
+        <v>27848</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Everaldo Stum - 6</t>
+          <t>Roger Guedes, Yuri Alberto - 7</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Marcos Felipe</t>
+          <t>Cássio</t>
         </is>
       </c>
       <c r="T14" t="inlineStr"/>
@@ -1425,64 +1425,64 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>28</v>
       </c>
       <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
         <v>8</v>
       </c>
-      <c r="E15" t="n">
-        <v>10</v>
-      </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
       <c r="J15" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="L15" t="n">
-        <v>33.6</v>
+        <v>29.4</v>
       </c>
       <c r="M15" t="n">
-        <v>33.7</v>
+        <v>36.4</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.1</v>
+        <v>-7</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>L D D L W</t>
+          <t>L L W L W</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>19465</v>
+        <v>13665</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Bruno Nascimento, Wesley - 4</t>
+          <t>Wanderson - 5</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Rafael Cabral</t>
+          <t>Keiller</t>
         </is>
       </c>
       <c r="T15" t="inlineStr"/>
@@ -1493,64 +1493,64 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="n">
+        <v>9</v>
+      </c>
+      <c r="E16" t="n">
         <v>7</v>
       </c>
-      <c r="E16" t="n">
-        <v>12</v>
-      </c>
       <c r="F16" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G16" t="n">
+        <v>37</v>
+      </c>
+      <c r="H16" t="n">
+        <v>41</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-4</v>
+      </c>
+      <c r="J16" t="n">
         <v>34</v>
       </c>
-      <c r="H16" t="n">
-        <v>36</v>
-      </c>
-      <c r="I16" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>33</v>
-      </c>
       <c r="K16" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="L16" t="n">
-        <v>29.4</v>
+        <v>37.2</v>
       </c>
       <c r="M16" t="n">
-        <v>37</v>
+        <v>41.5</v>
       </c>
       <c r="N16" t="n">
-        <v>-7.5</v>
+        <v>-4.3</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.27</v>
+        <v>-0.15</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>W L D D D</t>
+          <t>L W W W L</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>27848</v>
+        <v>28577</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Roger Guedes, Yuri Alberto - 7</t>
+          <t>Everaldo Stum - 6</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Cássio</t>
+          <t>Marcos Felipe</t>
         </is>
       </c>
       <c r="T16" t="inlineStr"/>
@@ -1565,7 +1565,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="n">
         <v>7</v>
@@ -1574,38 +1574,38 @@
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H17" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="I17" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="J17" t="n">
         <v>31</v>
       </c>
       <c r="K17" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="L17" t="n">
-        <v>28.1</v>
+        <v>28.7</v>
       </c>
       <c r="M17" t="n">
-        <v>32.9</v>
+        <v>35.4</v>
       </c>
       <c r="N17" t="n">
-        <v>-4.9</v>
+        <v>-6.7</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.17</v>
+        <v>-0.23</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>D D L W D</t>
+          <t>D L W D L</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1663,10 +1663,10 @@
         <v>36.9</v>
       </c>
       <c r="M18" t="n">
-        <v>34.1</v>
+        <v>34</v>
       </c>
       <c r="N18" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="O18" t="n">
         <v>0.1</v>
@@ -1796,7 +1796,7 @@
         <v>0.71</v>
       </c>
       <c r="L20" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="M20" t="n">
         <v>45.4</v>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="n">
         <v>4</v>
@@ -1846,38 +1846,38 @@
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H21" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I21" t="n">
-        <v>-26</v>
+        <v>-27</v>
       </c>
       <c r="J21" t="n">
         <v>19</v>
       </c>
       <c r="K21" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="L21" t="n">
-        <v>36.3</v>
+        <v>37.1</v>
       </c>
       <c r="M21" t="n">
-        <v>41.9</v>
+        <v>44.7</v>
       </c>
       <c r="N21" t="n">
-        <v>-5.6</v>
+        <v>-7.5</v>
       </c>
       <c r="O21" t="n">
-        <v>-0.2</v>
+        <v>-0.26</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>L D L L D</t>
+          <t>D L L D L</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Gonzalo Mastriani - 6</t>
+          <t>Gonzalo Mastriani - 7</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
